--- a/元素命名规律.xlsx
+++ b/元素命名规律.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ontextron-my.sharepoint.com/personal/jhu00_txt_textron_com/Documents/Documents/code/DataSheet-and-Price-Lister-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{B6D44D2B-7843-40C1-87FE-37912E81B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B212D7D-BAD9-4512-8D5A-2BD9D18BCF0C}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{B6D44D2B-7843-40C1-87FE-37912E81B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A9296A3-B703-4994-9147-EECE5CBF4EC4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D85E3D5C-B4E7-45E2-950D-4E51D01D7041}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{D85E3D5C-B4E7-45E2-950D-4E51D01D7041}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>BMM PLC Closing monitoring active NGFS monitoring final closing 6 Month Check</t>
   </si>
@@ -74,9 +74,6 @@
     <t>//*[@id="uxnumber-1425-inputEl"]</t>
   </si>
   <si>
-    <t>Labor detail</t>
-  </si>
-  <si>
     <t>//*[@id="lovmultiselectfield-1954-inputEl"]</t>
   </si>
   <si>
@@ -164,13 +161,16 @@
     <t>work order 2</t>
   </si>
   <si>
-    <t xml:space="preserve">//*[@id="button-1033-btnIconEl"]     </t>
-  </si>
-  <si>
     <t>快捷键</t>
   </si>
   <si>
     <t>CTRL+S</t>
+  </si>
+  <si>
+    <t>Slide Bar</t>
+  </si>
+  <si>
+    <t>//*[@id="panel-1093-splitter"]</t>
   </si>
 </sst>
 </file>
@@ -572,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFEB740-67D6-4CB2-B431-2F3B243E054B}">
-  <dimension ref="A5:I23"/>
+  <dimension ref="A5:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -590,266 +590,213 @@
     <col min="9" max="9" width="31.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D14" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/元素命名规律.xlsx
+++ b/元素命名规律.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ontextron-my.sharepoint.com/personal/jhu00_txt_textron_com/Documents/Documents/code/DataSheet-and-Price-Lister-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{B6D44D2B-7843-40C1-87FE-37912E81B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A9296A3-B703-4994-9147-EECE5CBF4EC4}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="8_{B6D44D2B-7843-40C1-87FE-37912E81B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FC0175A-847A-4995-BA06-C5B254992B63}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{D85E3D5C-B4E7-45E2-950D-4E51D01D7041}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D85E3D5C-B4E7-45E2-950D-4E51D01D7041}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>BMM PLC Closing monitoring active NGFS monitoring final closing 6 Month Check</t>
   </si>
@@ -161,9 +162,6 @@
     <t>work order 2</t>
   </si>
   <si>
-    <t>快捷键</t>
-  </si>
-  <si>
     <t>CTRL+S</t>
   </si>
   <si>
@@ -171,13 +169,55 @@
   </si>
   <si>
     <t>//*[@id="panel-1093-splitter"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labor Detail </t>
+  </si>
+  <si>
+    <t>//*[@id="panel-1664-bodyWrap"]</t>
+  </si>
+  <si>
+    <t>//*[@id="lovmultiselectfield-1667-inputEl"]</t>
+  </si>
+  <si>
+    <t>//*[@id="uxnumber-1670-inputEl"]</t>
+  </si>
+  <si>
+    <t>//*[@id="uxdate-1671-inputEl"]</t>
+  </si>
+  <si>
+    <t>父元素</t>
+  </si>
+  <si>
+    <t>子元素</t>
+  </si>
+  <si>
+    <t>//*[@id="button-1652-btnIconEl"]</t>
+  </si>
+  <si>
+    <t>work order 3</t>
+  </si>
+  <si>
+    <t>//*[@id="toolbar-1651-innerCt"]</t>
+  </si>
+  <si>
+    <t>//*[@id="button-1653-btnIconEl"]</t>
+  </si>
+  <si>
+    <t>//*[@id="button-1939"]</t>
+  </si>
+  <si>
+    <t>//*[@id="button-1937-btnIconEl"]</t>
+  </si>
+  <si>
+    <t>//*[@id="panel-1950-bodyWrap"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +234,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -203,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,18 +281,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -253,6 +329,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -572,38 +652,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFEB740-67D6-4CB2-B431-2F3B243E054B}">
-  <dimension ref="A5:I17"/>
+  <dimension ref="A5:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5546875" customWidth="1"/>
+    <col min="3" max="4" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
     <col min="7" max="7" width="44.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -732,7 +812,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -770,7 +850,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -783,21 +863,162 @@
       <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G19:I19"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/元素命名规律.xlsx
+++ b/元素命名规律.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ontextron-my.sharepoint.com/personal/jhu00_txt_textron_com/Documents/Documents/code/DataSheet-and-Price-Lister-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{B6D44D2B-7843-40C1-87FE-37912E81B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FC0175A-847A-4995-BA06-C5B254992B63}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="8_{B6D44D2B-7843-40C1-87FE-37912E81B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D55A4CF6-AA8E-425D-AF8F-93B525B5F24B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D85E3D5C-B4E7-45E2-950D-4E51D01D7041}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>BMM PLC Closing monitoring active NGFS monitoring final closing 6 Month Check</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>//*[@id="panel-1950-bodyWrap"]</t>
+  </si>
+  <si>
+    <t>下拉菜单</t>
+  </si>
+  <si>
+    <t>//*[@id="uxcombobox-1415-trigger-picker"]</t>
   </si>
 </sst>
 </file>
@@ -652,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFEB740-67D6-4CB2-B431-2F3B243E054B}">
-  <dimension ref="A5:I27"/>
+  <dimension ref="A5:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -854,7 +860,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -865,6 +871,9 @@
       </c>
       <c r="D15" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -948,41 +957,37 @@
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>53</v>
+      <c r="A23" s="3"/>
+      <c r="B23" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -993,23 +998,48 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/元素命名规律.xlsx
+++ b/元素命名规律.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ontextron-my.sharepoint.com/personal/jhu00_txt_textron_com/Documents/Documents/code/DataSheet-and-Price-Lister-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{B6D44D2B-7843-40C1-87FE-37912E81B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D55A4CF6-AA8E-425D-AF8F-93B525B5F24B}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{B6D44D2B-7843-40C1-87FE-37912E81B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD38F4F4-9181-4844-94D7-C6B25647F86A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D85E3D5C-B4E7-45E2-950D-4E51D01D7041}"/>
+    <workbookView minimized="1" xWindow="4536" yWindow="-48" windowWidth="18612" windowHeight="9708" xr2:uid="{D85E3D5C-B4E7-45E2-950D-4E51D01D7041}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>BMM PLC Closing monitoring active NGFS monitoring final closing 6 Month Check</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>//*[@id="uxcombobox-1415-trigger-picker"]</t>
+  </si>
+  <si>
+    <t>时间太多</t>
+  </si>
+  <si>
+    <t>//div[starts-with(@id, 'eammsgbox-')][0]</t>
+  </si>
+  <si>
+    <t>OK按钮</t>
+  </si>
+  <si>
+    <t>//*[starts-with(@id, 'button-') and contains(@id, '-btnInnerEl')]</t>
   </si>
 </sst>
 </file>
@@ -658,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFEB740-67D6-4CB2-B431-2F3B243E054B}">
-  <dimension ref="A5:I32"/>
+  <dimension ref="A5:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
@@ -667,7 +679,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.5546875" customWidth="1"/>
+    <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="4" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="35.6640625" customWidth="1"/>
     <col min="6" max="6" width="33.6640625" customWidth="1"/>
@@ -1042,6 +1054,22 @@
         <v>59</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A5:F5"/>

--- a/元素命名规律.xlsx
+++ b/元素命名规律.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="173" documentId="8_{B6D44D2B-7843-40C1-87FE-37912E81B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD38F4F4-9181-4844-94D7-C6B25647F86A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4536" yWindow="-48" windowWidth="18612" windowHeight="9708" xr2:uid="{D85E3D5C-B4E7-45E2-950D-4E51D01D7041}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D85E3D5C-B4E7-45E2-950D-4E51D01D7041}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,7 @@
   <dimension ref="A5:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
